--- a/data/trans_camb/IP16A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A04-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -772,17 +772,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>1,23</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 5,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 2,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,77</t>
+          <t>0,0; 7,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 1,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,09</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-32,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-64,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-45,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,88%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,81</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,39; 5,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; 2,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,92</t>
+          <t>0,0; 8,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; 1,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,3</t>
+          <t>-4,08; 2,09</t>
         </is>
       </c>
     </row>
@@ -989,19 +989,19 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-32,33%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-64,34%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-36,88%</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A04-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,87</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>0,0; 6,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,16</t>
+          <t>0,0; 12,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 1,09</t>
+          <t>-14,36; 1,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 6,34</t>
+          <t>-9,97; 10,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,22</t>
+          <t>-5,8; 1,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,11</t>
+          <t>-3,65; 7,46</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-72,08%</t>
+          <t>-74,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-45,82%</t>
+          <t>-48,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>76,47%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,92</t>
+          <t>0,0; 6,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,3</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,12 +913,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -928,17 +928,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,04</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 5,3</t>
+          <t>-13,54; 3,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 2,79</t>
+          <t>-18,46; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,77</t>
+          <t>0,0; 7,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 1,57</t>
+          <t>-6,93; 1,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,09</t>
+          <t>-6,98; 1,42</t>
         </is>
       </c>
     </row>
@@ -989,12 +989,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,33%</t>
+          <t>-43,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-64,34%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-45,27%</t>
+          <t>-49,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-36,88%</t>
+          <t>-59,41%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,27 +1069,27 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,01</t>
+          <t>-7,15; 3,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,39</t>
+          <t>-6,93; 6,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 3,95</t>
+          <t>0,0; 10,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,45</t>
+          <t>-5,06; 1,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,98</t>
+          <t>-2,95; 4,98</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-35,54%</t>
+          <t>-46,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-39,07%</t>
+          <t>-23,7%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-70,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>116,23%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-50,87%</t>
+          <t>-54,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>20,1%</t>
         </is>
       </c>
     </row>
@@ -1203,23 +1203,187 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-91,97; 170,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,95; 438,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 1,02</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 1,1</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 0,34</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 3,6</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 0,41</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 1,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-35,54%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-39,07%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-70,73%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>116,23%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-50,87%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>29,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-83,81; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-91,61; 154,28</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-63,15; 398,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A04-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,56</t>
+          <t>0,0; 6,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,45</t>
+          <t>0,0; 12,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 1,3</t>
+          <t>-14,04; 1,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 10,53</t>
+          <t>-8,85; 10,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,84</t>
+          <t>-6,05; 1,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 7,46</t>
+          <t>-3,22; 7,83</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,24</t>
+          <t>0,0; 5,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,0; 2,97</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 3,83</t>
+          <t>-13,18; 3,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 0,0</t>
+          <t>-15,99; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,27</t>
+          <t>0,0; 7,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 1,77</t>
+          <t>-7,86; 1,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 1,42</t>
+          <t>-8,1; 1,42</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 3,92</t>
+          <t>-7,07; 4,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 6,35</t>
+          <t>-6,92; 6,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,33</t>
+          <t>0,0; 11,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,67</t>
+          <t>-4,97; 1,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,98</t>
+          <t>-2,98; 5,04</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 1,02</t>
+          <t>-3,25; 1,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,1</t>
+          <t>-3,1; 1,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,34</t>
+          <t>-3,35; 0,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,6</t>
+          <t>-1,04; 3,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,41</t>
+          <t>-2,26; 0,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,99</t>
+          <t>-1,35; 2,12</t>
         </is>
       </c>
     </row>
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-83,81; —</t>
+          <t>-73,59; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-91,61; 154,28</t>
+          <t>-92,66; 123,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,15; 398,69</t>
+          <t>-65,82; 450,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A04-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-3,66</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>1,24</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>2,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,66</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,27</t>
+          <t>-14,44; 1,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,17</t>
+          <t>-8,34; 11,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 1,28</t>
+          <t>0,0; 6,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 10,47</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,52</t>
+          <t>-5,88; 1,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 7,83</t>
+          <t>-3,51; 7,02</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-74,05%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31,41%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-74,05%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>31,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -762,17 +762,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,97</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
     </row>
@@ -838,17 +838,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-1,48</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>-3,41</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 3,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 0,0</t>
+          <t>0,0; 8,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,36; 3,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,0</t>
+          <t>-14,51; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 1,74</t>
+          <t>-8,02; 1,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 1,42</t>
+          <t>-8,18; 1,42</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-43,55%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-1,61</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-0,82</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 4,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 6,92</t>
+          <t>0,0; 10,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,62; 3,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,75</t>
+          <t>-6,97; 8,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,67</t>
+          <t>-5,3; 1,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,04</t>
+          <t>-2,89; 4,93</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-46,38%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>-23,7%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-0,54</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,05</t>
+          <t>-3,47; 0,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,35</t>
+          <t>-1,12; 3,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 0,34</t>
+          <t>-3,29; 1,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,8</t>
+          <t>-3,08; 1,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,4</t>
+          <t>-2,36; 0,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,12</t>
+          <t>-1,29; 1,98</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-70,73%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>116,23%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-35,54%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-39,07%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-70,73%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>116,23%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-73,59; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-92,66; 123,17</t>
+          <t>-91,97; 170,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-65,82; 450,24</t>
+          <t>-66,95; 438,74</t>
         </is>
       </c>
     </row>
